--- a/bulletin/macroeconomics/static/macroeconomics/tables/quality_education.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/quality_education.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB3CD90-C0A0-4F50-A013-4515E2796DD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>№</t>
   </si>
@@ -146,13 +145,283 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>65,5</t>
+  </si>
+  <si>
+    <t>68,4</t>
+  </si>
+  <si>
+    <t>62,2</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>74,2</t>
+  </si>
+  <si>
+    <t>77,1</t>
+  </si>
+  <si>
+    <t>80,0</t>
+  </si>
+  <si>
+    <t>65,9</t>
+  </si>
+  <si>
+    <t>68,7</t>
+  </si>
+  <si>
+    <t>68,6</t>
+  </si>
+  <si>
+    <t>71,5</t>
+  </si>
+  <si>
+    <t>74,4</t>
+  </si>
+  <si>
+    <t>77,2</t>
+  </si>
+  <si>
+    <t>66,2</t>
+  </si>
+  <si>
+    <t>69,0</t>
+  </si>
+  <si>
+    <t>63,8</t>
+  </si>
+  <si>
+    <t>71,7</t>
+  </si>
+  <si>
+    <t>74,5</t>
+  </si>
+  <si>
+    <t>66,4</t>
+  </si>
+  <si>
+    <t>69,1</t>
+  </si>
+  <si>
+    <t>54,8</t>
+  </si>
+  <si>
+    <t>71,8</t>
+  </si>
+  <si>
+    <t>74,6</t>
+  </si>
+  <si>
+    <t>77,3</t>
+  </si>
+  <si>
+    <t>68,0</t>
+  </si>
+  <si>
+    <t>70,4</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>72,8</t>
+  </si>
+  <si>
+    <t>75,2</t>
+  </si>
+  <si>
+    <t>77,6</t>
+  </si>
+  <si>
+    <t>75,0</t>
+  </si>
+  <si>
+    <t>76,0</t>
+  </si>
+  <si>
+    <t>67,0</t>
+  </si>
+  <si>
+    <t>77,0</t>
+  </si>
+  <si>
+    <t>78,0</t>
+  </si>
+  <si>
+    <t>79,0</t>
+  </si>
+  <si>
+    <t>56,8</t>
+  </si>
+  <si>
+    <t>61,4</t>
+  </si>
+  <si>
+    <t>70,6</t>
+  </si>
+  <si>
+    <t>66,1</t>
+  </si>
+  <si>
+    <t>70,7</t>
+  </si>
+  <si>
+    <t>75,4</t>
+  </si>
+  <si>
+    <t>65,8</t>
+  </si>
+  <si>
+    <t>62,8</t>
+  </si>
+  <si>
+    <t>74,3</t>
+  </si>
+  <si>
+    <t>69,8</t>
+  </si>
+  <si>
+    <t>60,2</t>
+  </si>
+  <si>
+    <t>73,9</t>
+  </si>
+  <si>
+    <t>75,9</t>
+  </si>
+  <si>
+    <t>76,9</t>
+  </si>
+  <si>
+    <t>77,5</t>
+  </si>
+  <si>
+    <t>78,1</t>
+  </si>
+  <si>
+    <t>78,8</t>
+  </si>
+  <si>
+    <t>79,4</t>
+  </si>
+  <si>
+    <t>64,0</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>55,7</t>
+  </si>
+  <si>
+    <t>73,6</t>
+  </si>
+  <si>
+    <t>76,8</t>
+  </si>
+  <si>
+    <t>61,8</t>
+  </si>
+  <si>
+    <t>65,4</t>
+  </si>
+  <si>
+    <t>59,4</t>
+  </si>
+  <si>
+    <t>72,7</t>
+  </si>
+  <si>
+    <t>76,4</t>
+  </si>
+  <si>
+    <t>54,1</t>
+  </si>
+  <si>
+    <t>59,28</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>64,46</t>
+  </si>
+  <si>
+    <t>69,64</t>
+  </si>
+  <si>
+    <t>74,82</t>
+  </si>
+  <si>
+    <t>66,5</t>
+  </si>
+  <si>
+    <t>69,2</t>
+  </si>
+  <si>
+    <t>62,4</t>
+  </si>
+  <si>
+    <t>71,9</t>
+  </si>
+  <si>
+    <t>73,2</t>
+  </si>
+  <si>
+    <t>68,5</t>
+  </si>
+  <si>
+    <t>74,9</t>
+  </si>
+  <si>
+    <t>76,6</t>
+  </si>
+  <si>
+    <t>78,3</t>
+  </si>
+  <si>
+    <t>62,3</t>
+  </si>
+  <si>
+    <t>56,4</t>
+  </si>
+  <si>
+    <t>69,4</t>
+  </si>
+  <si>
+    <t>72,9</t>
+  </si>
+  <si>
+    <t>76,5</t>
+  </si>
+  <si>
+    <t>71,0</t>
+  </si>
+  <si>
+    <t>57,7</t>
+  </si>
+  <si>
+    <t>75,5</t>
+  </si>
+  <si>
+    <t>77,7</t>
+  </si>
+  <si>
+    <t>54,3</t>
+  </si>
+  <si>
+    <t>64,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +429,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,12 +517,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -243,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -278,7 +755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,2060 +932,2578 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="25.5" thickBot="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" ht="113.25" thickBot="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
         <v>423</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <v>423</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>423</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>430</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="11"/>
+      <c r="I5" s="12">
         <v>430</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="11"/>
+      <c r="K5" s="12">
         <v>430</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="11"/>
+      <c r="M5" s="12">
         <v>480</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
         <v>411</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>411</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <v>411</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>423</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="11"/>
+      <c r="I6" s="12">
         <v>423</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="11"/>
+      <c r="K6" s="12">
         <v>423</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12">
         <v>472</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
         <v>420</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>420</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>420</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>432</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="11"/>
+      <c r="I7" s="12">
         <v>432</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12">
         <v>432</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="11"/>
+      <c r="M7" s="12">
         <v>482</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
         <v>399</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>399</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>399</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>410</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="11"/>
+      <c r="I8" s="12">
         <v>410</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12">
         <v>410</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="11"/>
+      <c r="M8" s="12">
         <v>458</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
         <v>382</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>382</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>382</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>393</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="11"/>
+      <c r="I9" s="12">
         <v>393</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12">
         <v>393</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="11"/>
+      <c r="M9" s="12">
         <v>439</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
         <v>418</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>418</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>418</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>430</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12">
         <v>430</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="11"/>
+      <c r="K10" s="12">
         <v>430</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12">
         <v>480</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>456</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>456</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>456</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>469</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12">
         <v>469</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="11"/>
+      <c r="K11" s="12">
         <v>469</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12">
         <v>523</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <v>446</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="12">
         <v>446</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <v>446</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>459</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="11"/>
+      <c r="I12" s="12">
         <v>459</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="11"/>
+      <c r="K12" s="12">
         <v>459</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12">
         <v>512</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
         <v>448</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <v>448</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>448</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>461</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="11"/>
+      <c r="I13" s="12">
         <v>461</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="11"/>
+      <c r="K13" s="12">
         <v>461</v>
       </c>
-      <c r="M13">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12">
         <v>514</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
         <v>419</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>419</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <v>419</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>431</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="11"/>
+      <c r="I14" s="12">
         <v>431</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="11"/>
+      <c r="K14" s="12">
         <v>431</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12">
         <v>481</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <v>391</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <v>391</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <v>391</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>402</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
         <v>402</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12">
         <v>402</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12">
         <v>449</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
         <v>438</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="12">
         <v>438</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>438</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>440</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="11"/>
+      <c r="I16" s="12">
         <v>440</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="11"/>
+      <c r="K16" s="12">
         <v>440</v>
       </c>
-      <c r="M16">
+      <c r="L16" s="11"/>
+      <c r="M16" s="12">
         <v>491</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
         <v>433</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="12">
         <v>433</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>433</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>445</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
         <v>445</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="11"/>
+      <c r="K17" s="12">
         <v>445</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="11"/>
+      <c r="M17" s="12">
         <v>497</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
         <v>401</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>401</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>401</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>412</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
         <v>412</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="11"/>
+      <c r="K18" s="12">
         <v>412</v>
       </c>
-      <c r="M18">
+      <c r="L18" s="11"/>
+      <c r="M18" s="12">
         <v>460</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="45.75" thickBot="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>437</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="12">
         <v>437</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>437</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>449</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="11"/>
+      <c r="I19" s="12">
         <v>449</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
         <v>449</v>
       </c>
-      <c r="M19">
+      <c r="L19" s="11"/>
+      <c r="M19" s="12">
         <v>502</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>423</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="12">
         <v>423</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="12">
         <v>450</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <v>435</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="11"/>
+      <c r="I20" s="12">
         <v>435</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="11"/>
+      <c r="K20" s="12">
         <v>435</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="11"/>
+      <c r="M20" s="12">
         <v>486</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>448</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>448</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <v>448</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>461</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12">
         <v>461</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="11"/>
+      <c r="K21" s="12">
         <v>461</v>
       </c>
-      <c r="M21">
+      <c r="L21" s="11"/>
+      <c r="M21" s="12">
         <v>514</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
         <v>401</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="12">
         <v>401</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="12">
         <v>401</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <v>412</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="11"/>
+      <c r="I22" s="12">
         <v>412</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="11"/>
+      <c r="K22" s="12">
         <v>412</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="11"/>
+      <c r="M22" s="12">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
         <v>387</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="12">
         <v>387</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>387</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>392</v>
       </c>
-      <c r="I24">
+      <c r="H24" s="11"/>
+      <c r="I24" s="12">
         <v>392</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="11"/>
+      <c r="K24" s="12">
         <v>392</v>
       </c>
-      <c r="M24">
+      <c r="L24" s="11"/>
+      <c r="M24" s="12">
         <v>450</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
         <v>395</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="12">
         <v>395</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>395</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>405</v>
       </c>
-      <c r="I25">
+      <c r="H25" s="11"/>
+      <c r="I25" s="12">
         <v>405</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="11"/>
+      <c r="K25" s="12">
         <v>405</v>
       </c>
-      <c r="M25">
+      <c r="L25" s="11"/>
+      <c r="M25" s="12">
         <v>465</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
         <v>381</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>381</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="12">
         <v>381</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <v>391</v>
       </c>
-      <c r="I26">
+      <c r="H26" s="11"/>
+      <c r="I26" s="12">
         <v>391</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="11"/>
+      <c r="K26" s="12">
         <v>391</v>
       </c>
-      <c r="M26">
+      <c r="L26" s="11"/>
+      <c r="M26" s="12">
         <v>449</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11">
         <v>360</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <v>360</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <v>360</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>369</v>
       </c>
-      <c r="I27">
+      <c r="H27" s="11"/>
+      <c r="I27" s="12">
         <v>369</v>
       </c>
-      <c r="K27">
+      <c r="J27" s="11"/>
+      <c r="K27" s="12">
         <v>369</v>
       </c>
-      <c r="M27">
+      <c r="L27" s="11"/>
+      <c r="M27" s="12">
         <v>424</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
         <v>344</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="12">
         <v>344</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>344</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>353</v>
       </c>
-      <c r="I28">
+      <c r="H28" s="11"/>
+      <c r="I28" s="12">
         <v>369</v>
       </c>
-      <c r="K28">
+      <c r="J28" s="11"/>
+      <c r="K28" s="12">
         <v>369</v>
       </c>
-      <c r="M28">
+      <c r="L28" s="11"/>
+      <c r="M28" s="12">
         <v>405</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D29">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
         <v>378</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="12">
         <v>378</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>378</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>388</v>
       </c>
-      <c r="I29">
+      <c r="H29" s="11"/>
+      <c r="I29" s="12">
         <v>388</v>
       </c>
-      <c r="K29">
+      <c r="J29" s="11"/>
+      <c r="K29" s="12">
         <v>388</v>
       </c>
-      <c r="M29">
+      <c r="L29" s="11"/>
+      <c r="M29" s="12">
         <v>445</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11">
         <v>369</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>369</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="12">
         <v>369</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <v>379</v>
       </c>
-      <c r="I30">
+      <c r="H30" s="11"/>
+      <c r="I30" s="12">
         <v>379</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="11"/>
+      <c r="K30" s="12">
         <v>379</v>
       </c>
-      <c r="M30">
+      <c r="L30" s="11"/>
+      <c r="M30" s="12">
         <v>435</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
         <v>422</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="12">
         <v>422</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>422</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>433</v>
       </c>
-      <c r="I31">
+      <c r="H31" s="11"/>
+      <c r="I31" s="12">
         <v>433</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="11"/>
+      <c r="K31" s="12">
         <v>433</v>
       </c>
-      <c r="M31">
+      <c r="L31" s="11"/>
+      <c r="M31" s="12">
         <v>497</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11">
         <v>417</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="12">
         <v>417</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="12">
         <v>417</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <v>428</v>
       </c>
-      <c r="I32">
+      <c r="H32" s="11"/>
+      <c r="I32" s="12">
         <v>428</v>
       </c>
-      <c r="K32">
+      <c r="J32" s="11"/>
+      <c r="K32" s="12">
         <v>428</v>
       </c>
-      <c r="M32">
+      <c r="L32" s="11"/>
+      <c r="M32" s="12">
         <v>491</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D33">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
         <v>366</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="12">
         <v>366</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <v>366</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <v>375</v>
       </c>
-      <c r="I33">
+      <c r="H33" s="11"/>
+      <c r="I33" s="12">
         <v>375</v>
       </c>
-      <c r="K33">
+      <c r="J33" s="11"/>
+      <c r="K33" s="12">
         <v>375</v>
       </c>
-      <c r="M33">
+      <c r="L33" s="11"/>
+      <c r="M33" s="12">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D34">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11">
         <v>361</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="12">
         <v>361</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="12">
         <v>361</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>370</v>
       </c>
-      <c r="I34">
+      <c r="H34" s="11"/>
+      <c r="I34" s="12">
         <v>370</v>
       </c>
-      <c r="K34">
+      <c r="J34" s="11"/>
+      <c r="K34" s="12">
         <v>370</v>
       </c>
-      <c r="M34">
+      <c r="L34" s="11"/>
+      <c r="M34" s="12">
         <v>425</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11">
         <v>391</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="12">
         <v>391</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="12">
         <v>391</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>401</v>
       </c>
-      <c r="I35">
+      <c r="H35" s="11"/>
+      <c r="I35" s="12">
         <v>401</v>
       </c>
-      <c r="K35">
+      <c r="J35" s="11"/>
+      <c r="K35" s="12">
         <v>401</v>
       </c>
-      <c r="M35">
+      <c r="L35" s="11"/>
+      <c r="M35" s="12">
         <v>542</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11">
         <v>413</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="12">
         <v>413</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="12">
         <v>413</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <v>424</v>
       </c>
-      <c r="I36">
+      <c r="H36" s="11"/>
+      <c r="I36" s="12">
         <v>424</v>
       </c>
-      <c r="K36">
+      <c r="J36" s="11"/>
+      <c r="K36" s="12">
         <v>424</v>
       </c>
-      <c r="M36">
+      <c r="L36" s="11"/>
+      <c r="M36" s="12">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D37">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11">
         <v>373</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="12">
         <v>373</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="12">
         <v>362</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="12">
         <v>383</v>
       </c>
-      <c r="I37">
+      <c r="H37" s="11"/>
+      <c r="I37" s="12">
         <v>383</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="11"/>
+      <c r="K37" s="12">
         <v>383</v>
       </c>
-      <c r="M37">
+      <c r="L37" s="11"/>
+      <c r="M37" s="12">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" ht="45.75" thickBot="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D38">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11">
         <v>406</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="12">
         <v>406</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="12">
         <v>405</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="12">
         <v>416</v>
       </c>
-      <c r="I38">
+      <c r="H38" s="11"/>
+      <c r="I38" s="12">
         <v>416</v>
       </c>
-      <c r="K38">
+      <c r="J38" s="11"/>
+      <c r="K38" s="12">
         <v>416</v>
       </c>
-      <c r="M38">
+      <c r="L38" s="11"/>
+      <c r="M38" s="12">
         <v>478</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11">
         <v>387</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="12">
         <v>387</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>428</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <v>397</v>
       </c>
-      <c r="I39">
+      <c r="H39" s="11"/>
+      <c r="I39" s="12">
         <v>397</v>
       </c>
-      <c r="K39">
+      <c r="J39" s="11"/>
+      <c r="K39" s="12">
         <v>397</v>
       </c>
-      <c r="M39">
+      <c r="L39" s="11"/>
+      <c r="M39" s="12">
         <v>456</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D40">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11">
         <v>424</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="12">
         <v>424</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="12">
         <v>424</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="12">
         <v>435</v>
       </c>
-      <c r="I40">
+      <c r="H40" s="11"/>
+      <c r="I40" s="12">
         <v>435</v>
       </c>
-      <c r="K40">
+      <c r="J40" s="11"/>
+      <c r="K40" s="12">
         <v>435</v>
       </c>
-      <c r="M40">
+      <c r="L40" s="11"/>
+      <c r="M40" s="12">
         <v>499</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11">
         <v>373</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="12">
         <v>373</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="12">
         <v>381</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="12">
         <v>383</v>
       </c>
-      <c r="I41">
+      <c r="H41" s="11"/>
+      <c r="I41" s="12">
         <v>383</v>
       </c>
-      <c r="K41">
+      <c r="J41" s="11"/>
+      <c r="K41" s="12">
         <v>383</v>
       </c>
-      <c r="M41">
+      <c r="L41" s="11"/>
+      <c r="M41" s="12">
         <v>439</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11">
         <v>397</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="12">
         <v>397</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <v>397</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <v>402</v>
       </c>
-      <c r="I43">
+      <c r="H43" s="11"/>
+      <c r="I43" s="12">
         <v>402</v>
       </c>
-      <c r="K43">
+      <c r="J43" s="11"/>
+      <c r="K43" s="12">
         <v>402</v>
       </c>
-      <c r="M43">
+      <c r="L43" s="11"/>
+      <c r="M43" s="12">
         <v>490</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D44">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11">
         <v>401</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="12">
         <v>401</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="12">
         <v>401</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="12">
         <v>404</v>
       </c>
-      <c r="I44">
+      <c r="H44" s="11"/>
+      <c r="I44" s="12">
         <v>404</v>
       </c>
-      <c r="K44">
+      <c r="J44" s="11"/>
+      <c r="K44" s="12">
         <v>404</v>
       </c>
-      <c r="M44">
+      <c r="L44" s="11"/>
+      <c r="M44" s="12">
         <v>492</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D45">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11">
         <v>389</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="12">
         <v>389</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="12">
         <v>389</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="12">
         <v>392</v>
       </c>
-      <c r="I45">
+      <c r="H45" s="11"/>
+      <c r="I45" s="12">
         <v>392</v>
       </c>
-      <c r="K45">
+      <c r="J45" s="11"/>
+      <c r="K45" s="12">
         <v>392</v>
       </c>
-      <c r="M45">
+      <c r="L45" s="11"/>
+      <c r="M45" s="12">
         <v>478</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11">
         <v>380</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="12">
         <v>380</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="12">
         <v>380</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="12">
         <v>383</v>
       </c>
-      <c r="I46">
+      <c r="H46" s="11"/>
+      <c r="I46" s="12">
         <v>383</v>
       </c>
-      <c r="K46">
+      <c r="J46" s="11"/>
+      <c r="K46" s="12">
         <v>383</v>
       </c>
-      <c r="M46">
+      <c r="L46" s="11"/>
+      <c r="M46" s="12">
         <v>467</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11">
         <v>361</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="12">
         <v>361</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="12">
         <v>361</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="12">
         <v>364</v>
       </c>
-      <c r="I47">
+      <c r="H47" s="11"/>
+      <c r="I47" s="12">
         <v>364</v>
       </c>
-      <c r="K47">
+      <c r="J47" s="11"/>
+      <c r="K47" s="12">
         <v>364</v>
       </c>
-      <c r="M47">
+      <c r="L47" s="11"/>
+      <c r="M47" s="12">
         <v>443</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D48">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11">
         <v>391</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="12">
         <v>391</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="12">
         <v>391</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="12">
         <v>394</v>
       </c>
-      <c r="I48">
+      <c r="H48" s="11"/>
+      <c r="I48" s="12">
         <v>394</v>
       </c>
-      <c r="K48">
+      <c r="J48" s="11"/>
+      <c r="K48" s="12">
         <v>394</v>
       </c>
-      <c r="M48">
+      <c r="L48" s="11"/>
+      <c r="M48" s="12">
         <v>480</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D49">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
         <v>397</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="12">
         <v>397</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="12">
         <v>397</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="12">
         <v>400</v>
       </c>
-      <c r="I49">
+      <c r="H49" s="11"/>
+      <c r="I49" s="12">
         <v>400</v>
       </c>
-      <c r="K49">
+      <c r="J49" s="11"/>
+      <c r="K49" s="12">
         <v>400</v>
       </c>
-      <c r="M49">
+      <c r="L49" s="11"/>
+      <c r="M49" s="12">
         <v>488</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11">
         <v>397</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="12">
         <v>397</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="12">
         <v>428</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <v>400</v>
       </c>
-      <c r="I50">
+      <c r="H50" s="11"/>
+      <c r="I50" s="12">
         <v>400</v>
       </c>
-      <c r="K50">
+      <c r="J50" s="11"/>
+      <c r="K50" s="12">
         <v>400</v>
       </c>
-      <c r="M50">
+      <c r="L50" s="11"/>
+      <c r="M50" s="12">
         <v>488</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D51">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11">
         <v>426</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="12">
         <v>426</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="12">
         <v>426</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="12">
         <v>429</v>
       </c>
-      <c r="I51">
+      <c r="H51" s="11"/>
+      <c r="I51" s="12">
         <v>429</v>
       </c>
-      <c r="K51">
+      <c r="J51" s="11"/>
+      <c r="K51" s="12">
         <v>429</v>
       </c>
-      <c r="M51">
+      <c r="L51" s="11"/>
+      <c r="M51" s="12">
         <v>523</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11">
         <v>374</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="12">
         <v>374</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="12">
         <v>374</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="12">
         <v>377</v>
       </c>
-      <c r="I52">
+      <c r="H52" s="11"/>
+      <c r="I52" s="12">
         <v>377</v>
       </c>
-      <c r="K52">
+      <c r="J52" s="11"/>
+      <c r="K52" s="12">
         <v>377</v>
       </c>
-      <c r="M52">
+      <c r="L52" s="11"/>
+      <c r="M52" s="12">
         <v>459</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D53">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11">
         <v>365</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="12">
         <v>365</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="12">
         <v>365</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="12">
         <v>368</v>
       </c>
-      <c r="I53">
+      <c r="H53" s="11"/>
+      <c r="I53" s="12">
         <v>368</v>
       </c>
-      <c r="K53">
+      <c r="J53" s="11"/>
+      <c r="K53" s="12">
         <v>368</v>
       </c>
-      <c r="M53">
+      <c r="L53" s="11"/>
+      <c r="M53" s="12">
         <v>448</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D54">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11">
         <v>413</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="12">
         <v>413</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="12">
         <v>713</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="12">
         <v>416</v>
       </c>
-      <c r="I54">
+      <c r="H54" s="11"/>
+      <c r="I54" s="12">
         <v>416</v>
       </c>
-      <c r="K54">
+      <c r="J54" s="11"/>
+      <c r="K54" s="12">
         <v>416</v>
       </c>
-      <c r="M54">
+      <c r="L54" s="11"/>
+      <c r="M54" s="12">
         <v>507</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D55">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11">
         <v>419</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="12">
         <v>419</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="12">
         <v>419</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="12">
         <v>422</v>
       </c>
-      <c r="I55">
+      <c r="H55" s="11"/>
+      <c r="I55" s="12">
         <v>422</v>
       </c>
-      <c r="K55">
+      <c r="J55" s="11"/>
+      <c r="K55" s="12">
         <v>422</v>
       </c>
-      <c r="M55">
+      <c r="L55" s="11"/>
+      <c r="M55" s="12">
         <v>515</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D56">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11">
         <v>373</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="12">
         <v>373</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="12">
         <v>373</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="12">
         <v>376</v>
       </c>
-      <c r="I56">
+      <c r="H56" s="11"/>
+      <c r="I56" s="12">
         <v>376</v>
       </c>
-      <c r="K56">
+      <c r="J56" s="11"/>
+      <c r="K56" s="12">
         <v>376</v>
       </c>
-      <c r="M56">
+      <c r="L56" s="11"/>
+      <c r="M56" s="12">
         <v>458</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:14" ht="45.75" thickBot="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D57">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11">
         <v>413</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="12">
         <v>413</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="12">
         <v>413</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="12">
         <v>416</v>
       </c>
-      <c r="I57">
+      <c r="H57" s="11"/>
+      <c r="I57" s="12">
         <v>416</v>
       </c>
-      <c r="K57">
+      <c r="J57" s="11"/>
+      <c r="K57" s="12">
         <v>416</v>
       </c>
-      <c r="M57">
+      <c r="L57" s="11"/>
+      <c r="M57" s="12">
         <v>507</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D58">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11">
         <v>397</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="12">
         <v>397</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="12">
         <v>428</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="12">
         <v>400</v>
       </c>
-      <c r="I58">
+      <c r="H58" s="11"/>
+      <c r="I58" s="12">
         <v>400</v>
       </c>
-      <c r="K58">
+      <c r="J58" s="11"/>
+      <c r="K58" s="12">
         <v>400</v>
       </c>
-      <c r="M58">
+      <c r="L58" s="11"/>
+      <c r="M58" s="12">
         <v>488</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D59">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11">
         <v>431</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="12">
         <v>431</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="12">
         <v>431</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="12">
         <v>434</v>
       </c>
-      <c r="I59">
+      <c r="H59" s="11"/>
+      <c r="I59" s="12">
         <v>434</v>
       </c>
-      <c r="K59">
+      <c r="J59" s="11"/>
+      <c r="K59" s="12">
         <v>434</v>
       </c>
-      <c r="M59">
+      <c r="L59" s="11"/>
+      <c r="M59" s="12">
         <v>529</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D60">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11">
         <v>373</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="12">
         <v>373</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="12">
         <v>373</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="12">
         <v>376</v>
       </c>
-      <c r="I60">
+      <c r="H60" s="11"/>
+      <c r="I60" s="12">
         <v>376</v>
       </c>
-      <c r="K60">
+      <c r="J60" s="11"/>
+      <c r="K60" s="12">
         <v>376</v>
       </c>
-      <c r="M60">
+      <c r="L60" s="11"/>
+      <c r="M60" s="12">
         <v>458</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" ht="147.75" thickBot="1">
+      <c r="A61" s="4">
         <v>2</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62">
-        <v>65.5</v>
-      </c>
-      <c r="E62">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="F62">
-        <v>62.2</v>
-      </c>
-      <c r="G62">
-        <v>71.3</v>
-      </c>
-      <c r="I62">
-        <v>74.2</v>
-      </c>
-      <c r="K62">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="M62">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A65" s="14"/>
+      <c r="B65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E63">
-        <v>68.7</v>
-      </c>
-      <c r="F63">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="G63">
-        <v>71.5</v>
-      </c>
-      <c r="I63">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="K63">
-        <v>77.2</v>
-      </c>
-      <c r="M63">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>66.2</v>
-      </c>
-      <c r="E64">
-        <v>69</v>
-      </c>
-      <c r="F64">
-        <v>63.8</v>
-      </c>
-      <c r="G64">
-        <v>71.7</v>
-      </c>
-      <c r="I64">
-        <v>74.5</v>
-      </c>
-      <c r="K64">
-        <v>77.2</v>
-      </c>
-      <c r="M64">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="E65">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="F65">
-        <v>54.8</v>
-      </c>
-      <c r="G65">
-        <v>71.8</v>
-      </c>
-      <c r="I65">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="K65">
-        <v>77.3</v>
-      </c>
-      <c r="M65">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66">
+      <c r="G68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" s="11"/>
+      <c r="K69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E66">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F66">
-        <v>69.7</v>
-      </c>
-      <c r="G66">
-        <v>72.8</v>
-      </c>
-      <c r="I66">
-        <v>75.2</v>
-      </c>
-      <c r="K66">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="M66">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67">
+      <c r="G71" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="11"/>
+      <c r="K71" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" s="11"/>
+      <c r="K72" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" s="11"/>
+      <c r="K75" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="1:14" ht="45.75" thickBot="1">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" s="11"/>
+      <c r="K77" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="1:14" ht="23.25" thickBot="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J78" s="11"/>
+      <c r="K78" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="11"/>
+      <c r="M78" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J79" s="11"/>
+      <c r="K79" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="1:14" ht="114" thickBot="1">
+      <c r="A80" s="4">
+        <v>3</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="7">
+        <v>2</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="7">
+        <v>2</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="7">
+        <v>3</v>
+      </c>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" ht="214.5" thickBot="1">
+      <c r="A81" s="14">
+        <v>4</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12">
+        <v>90</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="12">
+        <v>86</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12">
+        <v>82</v>
+      </c>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12">
+        <v>79</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="12">
         <v>75</v>
       </c>
-      <c r="E67">
-        <v>76</v>
-      </c>
-      <c r="F67">
-        <v>67</v>
-      </c>
-      <c r="G67">
-        <v>77</v>
-      </c>
-      <c r="I67">
-        <v>78</v>
-      </c>
-      <c r="K67">
-        <v>79</v>
-      </c>
-      <c r="M67">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68">
-        <v>56.8</v>
-      </c>
-      <c r="E68">
-        <v>61.4</v>
-      </c>
-      <c r="F68">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="G68">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="I68">
-        <v>70.7</v>
-      </c>
-      <c r="K68">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="M68">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69">
-        <v>65.8</v>
-      </c>
-      <c r="E69">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F69">
-        <v>62.8</v>
-      </c>
-      <c r="G69">
-        <v>71.5</v>
-      </c>
-      <c r="I69">
-        <v>74.3</v>
-      </c>
-      <c r="K69">
-        <v>77.2</v>
-      </c>
-      <c r="M69">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70">
-        <v>69.8</v>
-      </c>
-      <c r="E70">
-        <v>71.8</v>
-      </c>
-      <c r="F70">
-        <v>60.2</v>
-      </c>
-      <c r="G70">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="I70">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="K70">
-        <v>78</v>
-      </c>
-      <c r="M70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="E71">
-        <v>77.5</v>
-      </c>
-      <c r="F71">
-        <v>69.7</v>
-      </c>
-      <c r="G71">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="I71">
-        <v>78.8</v>
-      </c>
-      <c r="K71">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="M71">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72">
-        <v>64</v>
-      </c>
-      <c r="E72">
-        <v>67.2</v>
-      </c>
-      <c r="F72">
-        <v>55.7</v>
-      </c>
-      <c r="G72">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I72">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="K72">
-        <v>76.8</v>
-      </c>
-      <c r="M72">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73">
-        <v>61.8</v>
-      </c>
-      <c r="E73">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="F73">
-        <v>59.4</v>
-      </c>
-      <c r="G73">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="I73">
-        <v>72.7</v>
-      </c>
-      <c r="K73">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="M73">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74">
-        <v>54.1</v>
-      </c>
-      <c r="E74">
-        <v>59.28</v>
-      </c>
-      <c r="F74">
-        <v>58.5</v>
-      </c>
-      <c r="G74">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="I74">
-        <v>69.64</v>
-      </c>
-      <c r="K74">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="M74">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75">
-        <v>66.5</v>
-      </c>
-      <c r="E75">
-        <v>69.2</v>
-      </c>
-      <c r="F75">
-        <v>62.4</v>
-      </c>
-      <c r="G75">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="I75">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="K75">
-        <v>77.3</v>
-      </c>
-      <c r="M75">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76">
-        <v>71.5</v>
-      </c>
-      <c r="E76">
-        <v>73.2</v>
-      </c>
-      <c r="F76">
-        <v>68.5</v>
-      </c>
-      <c r="G76">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="I76">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="K76">
-        <v>78.3</v>
-      </c>
-      <c r="M76">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77">
-        <v>62.3</v>
-      </c>
-      <c r="E77">
-        <v>65.8</v>
-      </c>
-      <c r="F77">
-        <v>56.4</v>
-      </c>
-      <c r="G77">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="I77">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="K77">
-        <v>76.5</v>
-      </c>
-      <c r="M77">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78">
-        <v>68.7</v>
-      </c>
-      <c r="E78">
-        <v>71</v>
-      </c>
-      <c r="F78">
-        <v>57.7</v>
-      </c>
-      <c r="G78">
-        <v>73.2</v>
-      </c>
-      <c r="I78">
-        <v>75.5</v>
-      </c>
-      <c r="K78">
-        <v>77.7</v>
-      </c>
-      <c r="M78">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79">
-        <v>54.3</v>
-      </c>
-      <c r="E79">
-        <v>59.4</v>
-      </c>
-      <c r="F79">
-        <v>65.5</v>
-      </c>
-      <c r="G79">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="I79">
-        <v>69.7</v>
-      </c>
-      <c r="K79">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="M79">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81">
-        <v>86</v>
-      </c>
-      <c r="I81">
-        <v>82</v>
-      </c>
-      <c r="K81">
-        <v>79</v>
-      </c>
-      <c r="M81">
-        <v>75</v>
-      </c>
+      <c r="N81" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
